--- a/金币/2018年9月.xlsx
+++ b/金币/2018年9月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>EOS</t>
   </si>
@@ -27,6 +27,9 @@
     <t>BTC</t>
   </si>
   <si>
+    <t>USDT</t>
+  </si>
+  <si>
     <t>日期/种类</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
   </si>
   <si>
     <t>金额</t>
+  </si>
+  <si>
+    <t>2。0106</t>
   </si>
   <si>
     <t>买入：绿</t>
@@ -76,10 +82,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,21 +125,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +146,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +185,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,12 +231,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -233,29 +255,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +460,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,24 +534,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,47 +548,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +565,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1100,7 +1099,7 @@
     <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,37 +1115,51 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="34" customHeight="1" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" ht="34" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -1372,156 +1385,242 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>43369</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
+      <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5">
+        <v>36.97</v>
+      </c>
+      <c r="D33" s="5">
+        <v>739.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5">
+        <v>20</v>
+      </c>
+      <c r="C34" s="5">
+        <v>38.42</v>
+      </c>
+      <c r="D34" s="5">
+        <v>768.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5">
+        <v>20</v>
+      </c>
+      <c r="C35" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5">
+        <v>38.32</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2682.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
         <v>43370</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1480</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1487</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2989.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
         <v>43371</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
         <v>43372</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
         <v>43373</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1570.75</v>
+      </c>
+      <c r="G41" s="5">
+        <v>6283</v>
+      </c>
+      <c r="H41" s="5">
+        <v>100</v>
+      </c>
+      <c r="I41" s="5">
+        <v>6.83</v>
+      </c>
+      <c r="J41" s="5">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="3">
-        <f>E44/187</f>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="3">
+        <f>E48/187</f>
         <v>35.0197860962567</v>
       </c>
-      <c r="D44" s="4">
-        <f>F44/187</f>
+      <c r="D48" s="4">
+        <f>F48/187</f>
         <v>39.0218181818182</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E48" s="3">
         <f>SUM(D3,D21,D22)</f>
         <v>6548.7</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F48" s="4">
         <f>SUM(D27,D28)</f>
         <v>7297.08</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="7">
-        <f>F44-E44</f>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="7">
+        <f>F48-E48</f>
         <v>748.38</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="3">
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="3">
         <v>707</v>
       </c>
-      <c r="C48" s="3">
-        <f>E48/2.5</f>
+      <c r="C52" s="3">
+        <f>E52/2.5</f>
         <v>1411.512</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D52" s="4">
         <f>F26</f>
         <v>1524.26</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E52" s="3">
         <f>G23+G24</f>
         <v>3528.78</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F52" s="4">
         <f>G26</f>
         <v>3032.21</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7">
-        <f>F48-G24</f>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="7">
+        <f>F52-G24</f>
         <v>210.43</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3">
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3">
         <v>930</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
